--- a/unit_tests.xlsx
+++ b/unit_tests.xlsx
@@ -31726,7 +31726,7 @@
   <dimension ref="A1:J1634"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A753" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B770" activeCellId="0" sqref="B770"/>
+      <selection pane="topLeft" activeCell="H767" activeCellId="0" sqref="H767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
